--- a/MIPROYECTO/Excel/productos.xlsx
+++ b/MIPROYECTO/Excel/productos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -56,12 +56,21 @@
     <t>100000.0</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Tela Azul</t>
+  </si>
+  <si>
+    <t>5000.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>Tela Azul</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -69,21 +78,6 @@
   </si>
   <si>
     <t>64000.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Tela Verde</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15000.0</t>
-  </si>
-  <si>
-    <t>165000.0</t>
   </si>
 </sst>
 </file>
@@ -193,30 +187,30 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
